--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1554593B-E7BB-4D59-B208-C6ACBAE39124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC2078B-AD4B-43DF-8F7B-6EAA6F16532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Id </t>
   </si>
@@ -33,10 +33,64 @@
     <t xml:space="preserve">first name </t>
   </si>
   <si>
-    <t xml:space="preserve">purchase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">price </t>
+    <t xml:space="preserve">suraj kumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanya gupta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayesha </t>
+  </si>
+  <si>
+    <t>asmi r sriyam</t>
+  </si>
+  <si>
+    <t>muskan</t>
+  </si>
+  <si>
+    <t>navodita</t>
+  </si>
+  <si>
+    <t>shraddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyanshi </t>
+  </si>
+  <si>
+    <t>sakshi</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skirt </t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>bangles</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>tshirt</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -354,71 +408,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>254100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
